--- a/OpenCart_TestCases_Automaion.xlsx
+++ b/OpenCart_TestCases_Automaion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E4928-9758-443E-AC2A-A2847E54C93C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85A5D9-F7A5-4B45-840D-07637059B381}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -614,9 +614,6 @@
     <t>Reviewed Date</t>
   </si>
   <si>
-    <t>OpenCart</t>
-  </si>
-  <si>
     <t>Patanjal Vishwakarma</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>Fail : I cannot see the  'Guest Checkout' radio button.</t>
+  </si>
+  <si>
+    <t>Tutorialsninja Webpage (tutorialsninja.com/demo/)</t>
   </si>
 </sst>
 </file>
@@ -1563,6 +1563,162 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1572,203 +1728,47 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2111,7 +2111,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2126,107 +2126,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" ht="24" customHeight="1">
+      <c r="A3" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="74"/>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1">
+      <c r="A4" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="85">
+        <v>45721</v>
+      </c>
+      <c r="D4" s="86"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A5" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="65"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="63">
-        <v>45721</v>
-      </c>
-      <c r="D4" s="66"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A5" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="84"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:7" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>95</v>
+      <c r="C9" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>100</v>
+      <c r="E9" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>101</v>
+      <c r="G9" s="49" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="98.25" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>96</v>
+      <c r="B10" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>29</v>
@@ -2237,19 +2237,19 @@
       <c r="E10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="89" t="s">
-        <v>109</v>
+      <c r="F10" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="105" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>96</v>
+      <c r="B11" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -2260,19 +2260,19 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="90" t="s">
+      <c r="F11" s="61" t="s">
         <v>109</v>
       </c>
+      <c r="G11" s="64" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>96</v>
+      <c r="B12" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -2283,19 +2283,19 @@
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="90" t="s">
-        <v>109</v>
+      <c r="G12" s="64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="118.5" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>96</v>
+      <c r="B13" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -2306,19 +2306,19 @@
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="90" t="s">
-        <v>109</v>
+      <c r="G13" s="64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="107.25" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>96</v>
+      <c r="B14" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>39</v>
@@ -2329,53 +2329,53 @@
       <c r="E14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="91" t="s">
-        <v>109</v>
+      <c r="G14" s="65" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57" customHeight="1" thickBot="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="58"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
       <c r="A16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>100</v>
+      <c r="E16" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="60" t="s">
-        <v>101</v>
+      <c r="G16" s="49" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="96" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>97</v>
+      <c r="B17" s="37" t="s">
+        <v>96</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>1</v>
@@ -2386,22 +2386,22 @@
       <c r="E17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="92" t="s">
-        <v>111</v>
+      <c r="G17" s="66" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="82.5" customHeight="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>97</v>
+      <c r="B18" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -2409,42 +2409,42 @@
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="90" t="s">
-        <v>109</v>
+      <c r="G18" s="64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="82.5" customHeight="1">
-      <c r="A19" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>97</v>
+      <c r="A19" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="90" t="s">
-        <v>109</v>
+      <c r="G19" s="64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="75" customHeight="1">
-      <c r="A20" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>97</v>
+      <c r="A20" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -2455,19 +2455,19 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="90" t="s">
-        <v>109</v>
+      <c r="G20" s="64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="82.5" customHeight="1" thickBot="1">
-      <c r="A21" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>97</v>
+      <c r="A21" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>11</v>
@@ -2478,53 +2478,53 @@
       <c r="E21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="94" t="s">
-        <v>109</v>
+      <c r="G21" s="68" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="62.25" customHeight="1" thickBot="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="88.5" customHeight="1">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>98</v>
+      <c r="B24" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>47</v>
@@ -2535,19 +2535,19 @@
       <c r="E24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="56" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="71.25" customHeight="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>98</v>
+      <c r="B25" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>48</v>
@@ -2558,19 +2558,19 @@
       <c r="E25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="55" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="117.75" customHeight="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>98</v>
+      <c r="B26" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>49</v>
@@ -2581,19 +2581,19 @@
       <c r="E26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="55" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>98</v>
+      <c r="B27" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>50</v>
@@ -2608,49 +2608,49 @@
         <v>61</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="30" spans="1:7" ht="93" customHeight="1">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>99</v>
+      <c r="B30" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>65</v>
@@ -2661,19 +2661,19 @@
       <c r="E30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="52" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="71.25" customHeight="1">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>99</v>
+      <c r="B31" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>66</v>
@@ -2684,19 +2684,19 @@
       <c r="E31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F31" s="53" t="s">
         <v>73</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="90.75" customHeight="1">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>99</v>
+      <c r="B32" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>67</v>
@@ -2707,19 +2707,19 @@
       <c r="E32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="53" t="s">
         <v>75</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="126" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>99</v>
+      <c r="B33" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>76</v>
@@ -2730,19 +2730,19 @@
       <c r="E33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="53" t="s">
         <v>78</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="118.5" customHeight="1" thickBot="1">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="59" t="s">
-        <v>99</v>
+      <c r="B34" s="48" t="s">
+        <v>98</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>79</v>
@@ -2753,11 +2753,11 @@
       <c r="E34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="80" t="s">
+      <c r="F34" s="54" t="s">
         <v>78</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/OpenCart_TestCases_Automaion.xlsx
+++ b/OpenCart_TestCases_Automaion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85A5D9-F7A5-4B45-840D-07637059B381}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB4D867-277B-4B3B-A170-3018C4BBC018}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -72,11 +72,81 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC_Login_002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>The user is redirected to the My Account page. A "Success: Your account has been logged in successfully" message is displayed.</t>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Navigate to the login page.&lt;br&gt;2. Enter an invalid email address.&lt;br&gt;3. Enter a valid password.&lt;br&gt;4. Click the 'Login' button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Empty Fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Navigate to the login page.&lt;br&gt;2. Leave both the email and password fields empty.&lt;br&gt;3. Click
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>the 'Login' button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Forgot Password' Link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Navigate to the login page.&lt;br&gt;2. Click the 'Forgotten Password' link.</t>
     </r>
   </si>
   <si>
@@ -87,7 +157,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>TC_Login_002</t>
+      <t>TC_Reg_001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC_Reg_002</t>
     </r>
   </si>
   <si>
@@ -97,7 +178,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>N/A</t>
+      <t>Existing Email</t>
     </r>
   </si>
   <si>
@@ -107,7 +188,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>1. Navigate to the login page.&lt;br&gt;2. Enter an invalid email address.&lt;br&gt;3. Enter a valid password.&lt;br&gt;4. Click the 'Login' button.</t>
+      <t>A user account with the email 'test@example.co m' already exists.</t>
     </r>
   </si>
   <si>
@@ -117,17 +198,16 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>An error message "Warning: No match for E-Mail Address and/or Password" is displayed.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">1. Navigate to the registration page.&lt;br&gt;2. Fill in the form using the existing email 'test@example.co m'.&lt;br&gt;3. Fill in all other mandatory fields.&lt;br&gt;4. Click
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>Empty Fields</t>
+      <t>'Continue'.</t>
     </r>
   </si>
   <si>
@@ -137,47 +217,109 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">1. Navigate to the login page.&lt;br&gt;2. Leave both the email and password fields empty.&lt;br&gt;3. Click
-</t>
-    </r>
+      <t>Missing Mandatory Fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC_Reg_004</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>the 'Login' button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Password Mismatch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TC_Reg_005</t>
+    </r>
+  </si>
+  <si>
+    <t>Login Functionality Test Cases</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Valid Registration</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>'Forgot Password' Link</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Test Case ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>1. Navigate to the login page.&lt;br&gt;2. Click the 'Forgotten Password' link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>Preconditions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">The user is redirected to the 'Forgotten Password' page. The page title is "Forgot Your
-</t>
+      <t>Expected Result</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Navigate to the registration page.&lt;br&gt;2. Fill in all mandatory fields.&lt;br&gt;3. Enter a password in the 'Password' field.&lt;br&gt;4. Enter a different password in the 'Password Confirm' field.&lt;br&gt;5. Click
+'Continue'.</t>
+  </si>
+  <si>
+    <t>Navigate to the registration page.2. Leave a mandatory field (e.g., First Name) empty.&lt;br&gt;3. Fill in the rest of the form.&lt;br&gt;4. Click 'Continue'.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t xml:space="preserve"> registration page.</t>
     </r>
     <r>
       <rPr>
@@ -185,40 +327,7 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>Password?".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Registration Functionality Test Cases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC_Reg_001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC_Reg_002</t>
+      <t xml:space="preserve"> 2. Fill in all the mandatory fields with valid, unique data. 3. Select a password that meets the criteria. 4. Agree to the privacy, policy. 5. Click 'Continue'.</t>
     </r>
   </si>
   <si>
@@ -228,7 +337,14 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>Existing Email</t>
+      <t>No Privacy Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t xml:space="preserve"> Agreement</t>
     </r>
   </si>
   <si>
@@ -238,203 +354,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t>A user account with the email 'test@example.co m' already exists.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. Navigate to the registration page.&lt;br&gt;2. Fill in the form using the existing email 'test@example.co m'.&lt;br&gt;3. Fill in all other mandatory fields.&lt;br&gt;4. Click
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Continue'.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC_Reg_003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Missing Mandatory Fields</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>An error message "First Name must be between 1 and 32 characters!" is displayed next to the field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC_Reg_004</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password Mismatch</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>An error message "Password Confirmation does not match password!" is displayed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TC_Reg_005</t>
-    </r>
-  </si>
-  <si>
-    <t>Login Functionality Test Cases</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Valid Registration</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Preconditions</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Test Case ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Preconditions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Expected Result</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Navigate to the registration page.&lt;br&gt;2. Fill in all mandatory fields.&lt;br&gt;3. Enter a password in the 'Password' field.&lt;br&gt;4. Enter a different password in the 'Password Confirm' field.&lt;br&gt;5. Click
-'Continue'.</t>
-  </si>
-  <si>
-    <t>Navigate to the registration page.2. Leave a mandatory field (e.g., First Name) empty.&lt;br&gt;3. Fill in the rest of the form.&lt;br&gt;4. Click 'Continue'.</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Navigate to the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t xml:space="preserve"> registration page.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2. Fill in all the mandatory fields with valid, unique data. 3. Select a password that meets the criteria. 4. Agree to the privacy, policy. 5. Click 'Continue'.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>No Privacy Policy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t xml:space="preserve"> Agreement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>1. Navigate to the</t>
     </r>
     <r>
@@ -447,12 +366,229 @@
     </r>
   </si>
   <si>
+    <t>Product Search Functionality Test Cases</t>
+  </si>
+  <si>
+    <t>TC_Search_001</t>
+  </si>
+  <si>
+    <t>TC_Search_002</t>
+  </si>
+  <si>
+    <t>TC_Search_003</t>
+  </si>
+  <si>
+    <t>TC_Search_004</t>
+  </si>
+  <si>
+    <t>Valid Product Search</t>
+  </si>
+  <si>
+    <t>Invalid Product Search</t>
+  </si>
+  <si>
+    <t>Case-Insensitive Search</t>
+  </si>
+  <si>
+    <t>Search by SKU/Model</t>
+  </si>
+  <si>
+    <t>A product with a known model number (e.g., 'Product 18') exists.</t>
+  </si>
+  <si>
+    <t>A product named 'MacBook' exists.</t>
+  </si>
+  <si>
+    <t>Products (e.g., 'MacBook') are available in the store.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a valid product name ('MacBook') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
+  </si>
+  <si>
+    <t>The search results page displays products matching the search query. The product name 'MacBook' should be visible.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a non-existent product name ('XYZ123') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
+  </si>
+  <si>
+    <t>The search results page displays the message "There is no product that matches the search criteria.".</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a product name in a different case ('macbook') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
+  </si>
+  <si>
+    <t>The search results page displays products matching the search query, confirming case-insensitivity.</t>
+  </si>
+  <si>
+    <t>The search results page displays the product with the matching model number.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.&lt;br&gt;2. Type the model number ('Product 18') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
+  </si>
+  <si>
+    <t>Shopping Cart &amp; Checkout Test Cases</t>
+  </si>
+  <si>
+    <t>TC_Cart_001</t>
+  </si>
+  <si>
+    <t>Add Product to Cart</t>
+  </si>
+  <si>
+    <t>Update Product Quantity</t>
+  </si>
+  <si>
+    <t>Remove Product from Cart</t>
+  </si>
+  <si>
+    <t>A product is available for purchase.</t>
+  </si>
+  <si>
+    <t>A product is in the shopping cart.</t>
+  </si>
+  <si>
+    <t>A success message "Success: You have added MacBook to your shopping cart!" is displayed. The shopping cart icon updates with '1' item.</t>
+  </si>
+  <si>
+    <t>1. Add a product to the cart.&lt;br&gt;2. Go to the shopping cart page.&lt;br&gt;3. Change the quantity of the item from '1' to '2'.&lt;br&gt;4. Click the 'Update' button.</t>
+  </si>
+  <si>
+    <t>The subtotal and total prices are updated to reflect the new quantity.</t>
+  </si>
+  <si>
+    <t>1. Add a product to the cart.&lt;br&gt;2. Go to the shopping cart page.&lt;br&gt;3. Click the 'Remove' button (red 'X' icon).</t>
+  </si>
+  <si>
+    <t>The product is removed from the cart. The cart becomes empty, and a message like "Your shopping cart is empty!" is displayed.</t>
+  </si>
+  <si>
+    <t>Guest Checkout</t>
+  </si>
+  <si>
+    <t>1. Add a product to the cart.&lt;br&gt;2. Go to the shopping cart page and click 'Checkout'.&lt;br&gt;3. Select the 'Guest Checkout' radio button.&lt;br&gt;4. Click 'Continue' and fill in all mandatory billing and delivery details.&lt;br&gt;5. Agree to the terms and conditions and complete the order.</t>
+  </si>
+  <si>
+    <t>Logged-in User Checkout</t>
+  </si>
+  <si>
+    <t>A registered user is logged in.</t>
+  </si>
+  <si>
+    <t>1. Log in to the account.&lt;br&gt;2. Add a product to the cart.&lt;br&gt;3. Go to the cart and click 'Checkout'.&lt;br&gt;4. The address information should be pre-filled. Confirm delivery and payment methods.&lt;br&gt;5. Agree to terms and conditions and place the order.</t>
+  </si>
+  <si>
+    <t>TC_Cart_005</t>
+  </si>
+  <si>
+    <t>TC_Cart_004</t>
+  </si>
+  <si>
+    <t>TC_Cart_002</t>
+  </si>
+  <si>
+    <t>TC_Cart_003</t>
+  </si>
+  <si>
+    <t>Automation Testing Using Seenium with Java and TestNG</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Reviewed Date</t>
+  </si>
+  <si>
+    <t>Patanjal Vishwakarma</t>
+  </si>
+  <si>
+    <t>Test Lead</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>TC_001 - Registration Functionality</t>
+  </si>
+  <si>
+    <t>TC_002 - Login Functionality</t>
+  </si>
+  <si>
+    <t>TC_003 - Product Search Funtionality</t>
+  </si>
+  <si>
+    <t>TC_004 - Cart and Checkout Funtionalty</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <r>
+      <t>The user is</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
+      </rPr>
+      <t xml:space="preserve"> redirected to the 'Your Account Has been Created!' page.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Navigate to the login page.&lt;br&gt;2. Enter an valid email address.&lt;br&gt;3. Enter a ibvalid password.&lt;br&gt;4. Click the 'Login' button.</t>
+  </si>
+  <si>
+    <t>Invalid Email/ valid Password</t>
+  </si>
+  <si>
+    <t>valid Email/ invalid Password</t>
+  </si>
+  <si>
+    <t>TC_Login_003</t>
+  </si>
+  <si>
+    <t>TC_Login_004</t>
+  </si>
+  <si>
+    <t>TC_Login_005</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>An error message "Warning: E-Mail Address is already registered!" is displayed.</t>
+  </si>
+  <si>
+    <t>Fail : The success message is not shown.</t>
+  </si>
+  <si>
+    <t>Tutorialsninja Webpage (tutorialsninja.com/demo/)</t>
+  </si>
+  <si>
+    <t>TC_Reg_003</t>
+  </si>
+  <si>
+    <t>An error message "Password confirmation does not match password!" is displayed.</t>
+  </si>
+  <si>
+    <t>An error message "First Name must be between 1 and 32 characters!" is displayed next to the field.</t>
+  </si>
+  <si>
+    <r>
       <t>An error message</t>
     </r>
     <r>
@@ -464,226 +600,27 @@
     </r>
   </si>
   <si>
-    <t>Product Search Functionality Test Cases</t>
-  </si>
-  <si>
-    <t>TC_Search_001</t>
-  </si>
-  <si>
-    <t>TC_Search_002</t>
-  </si>
-  <si>
-    <t>TC_Search_003</t>
-  </si>
-  <si>
-    <t>TC_Search_004</t>
-  </si>
-  <si>
-    <t>Valid Product Search</t>
-  </si>
-  <si>
-    <t>Invalid Product Search</t>
-  </si>
-  <si>
-    <t>Case-Insensitive Search</t>
-  </si>
-  <si>
-    <t>Search by SKU/Model</t>
-  </si>
-  <si>
-    <t>A product with a known model number (e.g., 'Product 18') exists.</t>
-  </si>
-  <si>
-    <t>A product named 'MacBook' exists.</t>
-  </si>
-  <si>
-    <t>Products (e.g., 'MacBook') are available in the store.</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a valid product name ('MacBook') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
-  </si>
-  <si>
-    <t>The search results page displays products matching the search query. The product name 'MacBook' should be visible.</t>
-  </si>
-  <si>
-    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a non-existent product name ('XYZ123') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
-  </si>
-  <si>
-    <t>The search results page displays the message "There is no product that matches the search criteria.".</t>
-  </si>
-  <si>
-    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a product name in a different case ('macbook') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
-  </si>
-  <si>
-    <t>The search results page displays products matching the search query, confirming case-insensitivity.</t>
-  </si>
-  <si>
-    <t>The search results page displays the product with the matching model number.</t>
-  </si>
-  <si>
-    <t>1. Navigate to the homepage.&lt;br&gt;2. Type the model number ('Product 18') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon.</t>
-  </si>
-  <si>
-    <t>Shopping Cart &amp; Checkout Test Cases</t>
-  </si>
-  <si>
-    <t>TC_Cart_001</t>
-  </si>
-  <si>
-    <t>Add Product to Cart</t>
-  </si>
-  <si>
-    <t>Update Product Quantity</t>
-  </si>
-  <si>
-    <t>Remove Product from Cart</t>
-  </si>
-  <si>
-    <t>A product is available for purchase.</t>
-  </si>
-  <si>
-    <t>A product is in the shopping cart.</t>
-  </si>
-  <si>
-    <t>1. Navigate to a product detail page (e.g., 'MacBook').&lt;br&gt;2. Click the 'Add to Cart' button.</t>
-  </si>
-  <si>
-    <t>A success message "Success: You have added MacBook to your shopping cart!" is displayed. The shopping cart icon updates with '1' item.</t>
-  </si>
-  <si>
-    <t>1. Add a product to the cart.&lt;br&gt;2. Go to the shopping cart page.&lt;br&gt;3. Change the quantity of the item from '1' to '2'.&lt;br&gt;4. Click the 'Update' button.</t>
-  </si>
-  <si>
-    <t>The subtotal and total prices are updated to reflect the new quantity.</t>
-  </si>
-  <si>
-    <t>1. Add a product to the cart.&lt;br&gt;2. Go to the shopping cart page.&lt;br&gt;3. Click the 'Remove' button (red 'X' icon).</t>
-  </si>
-  <si>
-    <t>The product is removed from the cart. The cart becomes empty, and a message like "Your shopping cart is empty!" is displayed.</t>
-  </si>
-  <si>
-    <t>Guest Checkout</t>
-  </si>
-  <si>
-    <t>1. Add a product to the cart.&lt;br&gt;2. Go to the shopping cart page and click 'Checkout'.&lt;br&gt;3. Select the 'Guest Checkout' radio button.&lt;br&gt;4. Click 'Continue' and fill in all mandatory billing and delivery details.&lt;br&gt;5. Agree to the terms and conditions and complete the order.</t>
-  </si>
-  <si>
-    <t>The order is successfully placed. The user is redirected to the 'Your Order Has Been Placed!' page.</t>
-  </si>
-  <si>
-    <t>Logged-in User Checkout</t>
-  </si>
-  <si>
-    <t>A registered user is logged in.</t>
-  </si>
-  <si>
-    <t>1. Log in to the account.&lt;br&gt;2. Add a product to the cart.&lt;br&gt;3. Go to the cart and click 'Checkout'.&lt;br&gt;4. The address information should be pre-filled. Confirm delivery and payment methods.&lt;br&gt;5. Agree to terms and conditions and place the order.</t>
-  </si>
-  <si>
-    <t>TC_Cart_005</t>
-  </si>
-  <si>
-    <t>TC_Cart_004</t>
-  </si>
-  <si>
-    <t>TC_Cart_002</t>
-  </si>
-  <si>
-    <t>TC_Cart_003</t>
-  </si>
-  <si>
-    <t>Automation Testing Using Seenium with Java and TestNG</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Creation Date</t>
-  </si>
-  <si>
-    <t>Reviewed By</t>
-  </si>
-  <si>
-    <t>Reviewed Date</t>
-  </si>
-  <si>
-    <t>Patanjal Vishwakarma</t>
-  </si>
-  <si>
-    <t>Test Lead</t>
-  </si>
-  <si>
-    <t>Test Case Title</t>
-  </si>
-  <si>
-    <t>TC_001 - Registration Functionality</t>
-  </si>
-  <si>
-    <t>TC_002 - Login Functionality</t>
-  </si>
-  <si>
-    <t>TC_003 - Product Search Funtionality</t>
-  </si>
-  <si>
-    <t>TC_004 - Cart and Checkout Funtionalty</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Test Status</t>
-  </si>
-  <si>
-    <r>
-      <t>The user is</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial MT"/>
-      </rPr>
-      <t xml:space="preserve"> redirected to the 'Your Account Has been Created!' page.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Navigate to the login page.&lt;br&gt;2. Enter an valid email address.&lt;br&gt;3. Enter a ibvalid password.&lt;br&gt;4. Click the 'Login' button.</t>
-  </si>
-  <si>
-    <t>Invalid Email/ valid Password</t>
-  </si>
-  <si>
-    <t>valid Email/ invalid Password</t>
-  </si>
-  <si>
-    <t>TC_Login_003</t>
-  </si>
-  <si>
-    <t>TC_Login_004</t>
-  </si>
-  <si>
-    <t>TC_Login_005</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>An error message "Warning: E-Mail Address is already registered!" is displayed.</t>
-  </si>
-  <si>
-    <t>Fail : The success message is not shown.</t>
-  </si>
-  <si>
-    <t>Fail : I cannot see the  'Guest Checkout' radio button.</t>
-  </si>
-  <si>
-    <t>Tutorialsninja Webpage (tutorialsninja.com/demo/)</t>
+    <t>The user is redirected to the My Account page. A "Success: Your account has been logged in successfully" message is displayed.</t>
+  </si>
+  <si>
+    <t>An error message "Warning: No match for E-Mail Address and/or Password." is displayed.</t>
+  </si>
+  <si>
+    <t>The user is redirected to the 'Forgotten Password' page. The page title is "Forgot Your
+Password?".</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a valid product name ('Ex. MacBook') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon. 4. Click the 'Add to Cart' A8+A8+A8.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.&lt;br&gt;2. Type a valid product name ('MacBook') in the search bar.&lt;br&gt;3. Press 'Enter' or click the search icon. 4. Click "Add to cart" button.</t>
+  </si>
+  <si>
+    <t>Fail : expected [Success: You have added HP LP3065 to your shopping cart!] but found [Success: You have added HP LP3065 to your shopping cart!
+×]</t>
+  </si>
+  <si>
+    <t>The order is successfully placed. The user is redirected to the 'Your order has been placed!' page.</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1656,15 +1593,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1701,7 +1629,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2110,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="128" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2126,248 +2054,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="A1" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A2" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="82"/>
+      <c r="A2" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="84"/>
+      <c r="A3" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1">
-      <c r="A4" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="85">
+      <c r="A4" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="82">
         <v>45721</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A5" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="84"/>
+      <c r="A5" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A6" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="88"/>
+      <c r="A6" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:7" ht="26.25" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:7" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A8" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="A8" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="23" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" s="49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="98.25" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>108</v>
+        <v>31</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="105" customHeight="1">
       <c r="A11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A12" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="75.75" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="118.5" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="107.25" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>108</v>
+        <v>33</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57" customHeight="1" thickBot="1">
-      <c r="A15" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
+      <c r="A15" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
       <c r="A16" s="23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="96" customHeight="1">
@@ -2375,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>1</v>
@@ -2387,377 +2315,377 @@
         <v>3</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="82.5" customHeight="1">
       <c r="A18" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F18" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="82.5" customHeight="1">
       <c r="A19" s="50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="75" customHeight="1">
       <c r="A20" s="50" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="82.5" customHeight="1" thickBot="1">
       <c r="A21" s="51" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="68" t="s">
         <v>108</v>
       </c>
+      <c r="G21" s="65" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="62.25" customHeight="1" thickBot="1">
-      <c r="A22" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
+      <c r="A22" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
       <c r="A23" s="26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="88.5" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="F24" s="56" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="71.25" customHeight="1">
       <c r="A25" s="33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="117.75" customHeight="1">
       <c r="A26" s="33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>60</v>
-      </c>
       <c r="G26" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A27" s="67" t="s">
-        <v>46</v>
+      <c r="A27" s="64" t="s">
+        <v>38</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A28" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
+      <c r="A28" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
       <c r="A29" s="26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="93" customHeight="1">
       <c r="A30" s="43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="71.25" customHeight="1">
       <c r="A31" s="44" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B31" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="90.75" customHeight="1">
       <c r="A32" s="44" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B32" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="126" customHeight="1">
       <c r="A33" s="44" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B33" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="118.5" customHeight="1" thickBot="1">
       <c r="A34" s="45" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B34" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
